--- a/excel/test1.xlsx
+++ b/excel/test1.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -376,54 +377,482 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+      <c r="C1" t="str">
+        <v>c</v>
+      </c>
+      <c r="D1" t="str">
+        <v>d</v>
+      </c>
+      <c r="E1" t="str">
+        <v>e</v>
+      </c>
+      <c r="F1" t="str">
+        <v>f</v>
+      </c>
+      <c r="G1" t="str">
+        <v>g</v>
+      </c>
+      <c r="H1" t="str">
+        <v>h</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>i</v>
+      </c>
+      <c r="B2" t="str">
+        <v>j</v>
+      </c>
+      <c r="C2" t="str">
+        <v>k</v>
+      </c>
+      <c r="D2" t="str">
+        <v>l</v>
+      </c>
+      <c r="E2" t="str">
+        <v>m</v>
+      </c>
+      <c r="F2" t="str">
+        <v>n</v>
+      </c>
+      <c r="G2" t="str">
+        <v>o</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>p</v>
+      </c>
+      <c r="B3" t="str">
+        <v>q</v>
+      </c>
+      <c r="C3" t="str">
+        <v>r</v>
+      </c>
+      <c r="D3" t="str">
+        <v>s</v>
+      </c>
+      <c r="E3" t="str">
+        <v>t</v>
+      </c>
+      <c r="F3" t="str">
+        <v>u</v>
+      </c>
+      <c r="G3" t="str">
+        <v>v</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>w</v>
+      </c>
+      <c r="B4" t="str">
+        <v>x</v>
+      </c>
+      <c r="C4" t="str">
+        <v>y</v>
+      </c>
+      <c r="D4" t="str">
+        <v>z</v>
+      </c>
+      <c r="E4" t="str">
+        <v>a</v>
+      </c>
+      <c r="F4" t="str">
+        <v>b</v>
+      </c>
+      <c r="G4" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>d</v>
+      </c>
+      <c r="B5" t="str">
+        <v>e</v>
+      </c>
+      <c r="C5" t="str">
+        <v>f</v>
+      </c>
+      <c r="D5" t="str">
+        <v>g</v>
+      </c>
+      <c r="E5" t="str">
+        <v>h</v>
+      </c>
+      <c r="F5" t="str">
+        <v>i</v>
+      </c>
+      <c r="G5" t="str">
+        <v>j</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>k</v>
+      </c>
+      <c r="B6" t="str">
+        <v>l</v>
+      </c>
+      <c r="C6" t="str">
+        <v>m</v>
+      </c>
+      <c r="D6" t="str">
+        <v>n</v>
+      </c>
+      <c r="E6" t="str">
+        <v>o</v>
+      </c>
+      <c r="F6" t="str">
+        <v>p</v>
+      </c>
+      <c r="G6" t="str">
+        <v>q</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="sheet2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>4</v>
       </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
       <c r="G1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
       <c r="B3">
         <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
